--- a/Portfolio/アームモデル_PI-D制御_テストケース.xlsx
+++ b/Portfolio/アームモデル_PI-D制御_テストケース.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="8_{6328D385-3E76-414E-B26A-D47BB2FCB828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B5AB68-8EC5-4560-9C3C-5A236AC02359}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42A9484A-37D0-4C81-B2CB-235AB115260D}"/>
+    <workbookView xWindow="28680" yWindow="-1410" windowWidth="29040" windowHeight="15720" xr2:uid="{42A9484A-37D0-4C81-B2CB-235AB115260D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,6 +497,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,15 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4374EC-D9EB-46FC-A610-724151228F7C}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1072,10 +1072,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1096,7 +1096,7 @@
       <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="9" t="s">
         <v>32</v>
       </c>
@@ -1108,8 +1108,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="9" t="s">
         <v>32</v>
       </c>
@@ -1138,8 +1138,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1154,7 +1154,7 @@
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="9" t="s">
         <v>32</v>
       </c>
@@ -1166,10 +1166,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1190,7 +1190,7 @@
       <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="9" t="s">
         <v>32</v>
       </c>
@@ -1202,8 +1202,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="9" t="s">
         <v>32</v>
       </c>
@@ -1232,8 +1232,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>15</v>
@@ -1248,7 +1248,7 @@
       <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="9" t="s">
         <v>32</v>
       </c>
@@ -1260,10 +1260,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1284,7 +1284,7 @@
       <c r="H8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="9" t="s">
         <v>32</v>
       </c>
@@ -1296,8 +1296,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="H9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="9" t="s">
         <v>32</v>
       </c>
@@ -1326,10 +1326,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1350,20 +1350,20 @@
       <c r="H10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="8">
         <v>45878</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="H11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="9" t="s">
         <v>32</v>
       </c>
@@ -1392,10 +1392,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1416,7 +1416,7 @@
       <c r="H12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="H13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="9" t="s">
         <v>32</v>
       </c>
@@ -1458,12 +1458,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="15" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="22"/>
@@ -1476,7 +1476,7 @@
       <c r="H14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="9" t="s">
         <v>57</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="A17" s="12"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
